--- a/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.5638678391195581</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6047530766993697</v>
+        <v>0.6047530766993698</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.509535292264754</v>
@@ -697,7 +697,7 @@
         <v>0.523516798069055</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5685394833652655</v>
+        <v>0.5685394833652654</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4641956861413289</v>
+        <v>0.4663534738842269</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2332262154506231</v>
+        <v>0.2305321968699788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4342697941895486</v>
+        <v>0.4314965680006093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4752570859709598</v>
+        <v>0.475324154804154</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4903552800187965</v>
+        <v>0.4904289267576456</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3365553414542015</v>
+        <v>0.3365026840765943</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5310797016072283</v>
+        <v>0.5290374893650061</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.577906977079651</v>
+        <v>0.5778929951548319</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4887599422823967</v>
+        <v>0.4910658346097388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3014614580269305</v>
+        <v>0.2994218297235106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4990701724089714</v>
+        <v>0.4992275236302864</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5473535112532004</v>
+        <v>0.544648340515545</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5268922296061569</v>
+        <v>0.5272671369599842</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2865940897129098</v>
+        <v>0.289729952051917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5072071042362788</v>
+        <v>0.5037195094953357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5550965170170793</v>
+        <v>0.5584210440389916</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5484749694941778</v>
+        <v>0.5463508018030028</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3884237616353401</v>
+        <v>0.3887005527443487</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5950082506591201</v>
+        <v>0.5960339733328189</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.630491179744316</v>
+        <v>0.6331323806442533</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5320372489515647</v>
+        <v>0.535394781342505</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3403566214169654</v>
+        <v>0.338222670689705</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5490212738675962</v>
+        <v>0.547078426202967</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5914906522484444</v>
+        <v>0.5907078194231705</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3986279863434523</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3759938980780619</v>
+        <v>0.3759938980780618</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4192388598472254</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.382191661059268</v>
+        <v>0.3800103817606039</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2088799332665487</v>
+        <v>0.2100168805044835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.298063830484502</v>
+        <v>0.2990581083854096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2954816365692525</v>
+        <v>0.2934788408742577</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4097766706189641</v>
+        <v>0.4063030736009506</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2792626628999058</v>
+        <v>0.2804129739384763</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3756407869130405</v>
+        <v>0.3771038478473996</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3550837997788532</v>
+        <v>0.3567823203687931</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4004742821060112</v>
+        <v>0.401698138718201</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2496100910430058</v>
+        <v>0.2490250602509802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3426870610630112</v>
+        <v>0.3431021053167248</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3323344631634901</v>
+        <v>0.332152571778228</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4269820231911098</v>
+        <v>0.4295098060597684</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2511252390918359</v>
+        <v>0.2488074885785796</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3421826374122965</v>
+        <v>0.342083183491235</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3412385931682498</v>
+        <v>0.3401746916437612</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.461331172397709</v>
+        <v>0.4581641561694036</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.328131165948279</v>
+        <v>0.3254769891261961</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4198894462442072</v>
+        <v>0.4229655736095689</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3974702568178475</v>
+        <v>0.3948748752600947</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4352438759312997</v>
+        <v>0.4356618989620962</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2780345182219237</v>
+        <v>0.2779568023156464</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3732532658946722</v>
+        <v>0.3744907345456298</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3621806633780122</v>
+        <v>0.3614376536041095</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2838730284876476</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.267391050947177</v>
+        <v>0.2673910509471769</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3240854462629345</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2286616770420086</v>
+        <v>0.2337090684483668</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1056560256244193</v>
+        <v>0.1067375867078029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1973638017224222</v>
+        <v>0.1924699149067486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2017390293216603</v>
+        <v>0.2015641900656903</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3455302027706937</v>
+        <v>0.3445718176117716</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1501933051404479</v>
+        <v>0.145560178615869</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2444960110876612</v>
+        <v>0.2441120732899494</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2375407844116743</v>
+        <v>0.2372434990288906</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2960468858342532</v>
+        <v>0.2962524798157031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1344046613327588</v>
+        <v>0.1363152252623297</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2301397759139888</v>
+        <v>0.2291402220580124</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2265024688472386</v>
+        <v>0.2307297572105859</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3113416911215235</v>
+        <v>0.3083717410873535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1737438848078737</v>
+        <v>0.1716783129784091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2721539283424761</v>
+        <v>0.2673901432210196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2722148003534065</v>
+        <v>0.2717711343498275</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4336555329123885</v>
+        <v>0.4367952592183969</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2209730207212383</v>
+        <v>0.2203089203467544</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3232312216390246</v>
+        <v>0.3241189657809521</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2989670888966275</v>
+        <v>0.2969313531583396</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3571261084206825</v>
+        <v>0.3555418263449986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1844232048577447</v>
+        <v>0.1855098801936249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2849211016813513</v>
+        <v>0.2840252290841046</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2724552971300124</v>
+        <v>0.2753738418746994</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3388716012458159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3337148452185047</v>
+        <v>0.3337148452185048</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4613358319613749</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2107575393828067</v>
+        <v>0.2097077339530005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3239326413195841</v>
+        <v>0.3231271676095039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3145998542680704</v>
+        <v>0.3164025162914629</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2927654184271855</v>
+        <v>0.2931690422434428</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4109121292001675</v>
+        <v>0.4109273631733855</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3895707890447839</v>
+        <v>0.3909836493573512</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2572635802708347</v>
+        <v>0.2571959534149634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3718045392800504</v>
+        <v>0.3725854348636174</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3588462022489254</v>
+        <v>0.360010632080605</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2410108942745723</v>
+        <v>0.2389231671434625</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3560365944012291</v>
+        <v>0.3549805563945802</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3492612447259939</v>
+        <v>0.351761723228207</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3260568735205932</v>
+        <v>0.326725528949828</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4441496806272827</v>
+        <v>0.4442286849814515</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4189192077183677</v>
+        <v>0.4207044566133554</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2790828275307976</v>
+        <v>0.2776887415577916</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3957109547537009</v>
+        <v>0.3963591661064415</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.381415245719814</v>
+        <v>0.3809953036306006</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>471103</v>
+        <v>473293</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>227103</v>
+        <v>224480</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>327590</v>
+        <v>325498</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>273037</v>
+        <v>273075</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>634092</v>
+        <v>634187</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>449873</v>
+        <v>449803</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>528244</v>
+        <v>526212</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>471917</v>
+        <v>471905</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1128062</v>
+        <v>1133384</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>696510</v>
+        <v>691798</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>872877</v>
+        <v>873152</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>761423</v>
+        <v>757660</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>534733</v>
+        <v>535113</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>279070</v>
+        <v>282123</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>382610</v>
+        <v>379979</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>318905</v>
+        <v>320815</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>709248</v>
+        <v>706501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>519206</v>
+        <v>519576</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>591831</v>
+        <v>592851</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>514857</v>
+        <v>517013</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1227946</v>
+        <v>1235695</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>786375</v>
+        <v>781445</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>960242</v>
+        <v>956844</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>822822</v>
+        <v>821733</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>638208</v>
+        <v>634566</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>410051</v>
+        <v>412283</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>618895</v>
+        <v>620960</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>657669</v>
+        <v>653211</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>639136</v>
+        <v>633719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>490889</v>
+        <v>492911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>746887</v>
+        <v>749796</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>769962</v>
+        <v>773645</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1293365</v>
+        <v>1297317</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>928774</v>
+        <v>926597</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1392915</v>
+        <v>1394602</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1460326</v>
+        <v>1459527</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>713002</v>
+        <v>717223</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>492983</v>
+        <v>488433</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>710503</v>
+        <v>710296</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>759513</v>
+        <v>757145</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>719547</v>
+        <v>714607</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>576790</v>
+        <v>572124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>834866</v>
+        <v>840982</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>861872</v>
+        <v>856244</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1405656</v>
+        <v>1407006</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1034538</v>
+        <v>1034249</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1517157</v>
+        <v>1522187</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1591475</v>
+        <v>1588210</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>125036</v>
+        <v>127796</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50840</v>
+        <v>51360</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>107936</v>
+        <v>105259</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>143327</v>
+        <v>143203</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>160987</v>
+        <v>160540</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>68883</v>
+        <v>66758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>134263</v>
+        <v>134052</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>174471</v>
+        <v>174253</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>299816</v>
+        <v>300024</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>126315</v>
+        <v>128111</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>252239</v>
+        <v>251144</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>327284</v>
+        <v>333393</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>170247</v>
+        <v>168623</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>83602</v>
+        <v>82608</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>148837</v>
+        <v>146232</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>193397</v>
+        <v>193082</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>202046</v>
+        <v>203509</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>101345</v>
+        <v>101041</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>177499</v>
+        <v>177987</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>219588</v>
+        <v>218093</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>361673</v>
+        <v>360068</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>173323</v>
+        <v>174345</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>312281</v>
+        <v>311299</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>393684</v>
+        <v>397901</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>720374</v>
+        <v>716786</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1094121</v>
+        <v>1091400</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1104470</v>
+        <v>1110799</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1040234</v>
+        <v>1041668</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1451383</v>
+        <v>1451437</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1449000</v>
+        <v>1454255</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1793425</v>
+        <v>1792953</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2569065</v>
+        <v>2574460</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2594528</v>
+        <v>2602947</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>823781</v>
+        <v>816645</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1202556</v>
+        <v>1198989</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1226157</v>
+        <v>1234935</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1158523</v>
+        <v>1160899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1568781</v>
+        <v>1569060</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1558161</v>
+        <v>1564801</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1945530</v>
+        <v>1935812</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2734251</v>
+        <v>2738730</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2757706</v>
+        <v>2754670</v>
       </c>
     </row>
     <row r="20">
